--- a/SeKAD/public/uploads/Teacher.xlsx
+++ b/SeKAD/public/uploads/Teacher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Year 3\Sem I\AD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4CCB214-2AAB-4DFE-967C-41EFB3EF0B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A299720B-C695-4B76-94D8-8CB5B78F8C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FE30CEA9-4D91-4F91-8DFB-DFED30287D2C}"/>
+    <workbookView xWindow="10260" yWindow="444" windowWidth="11580" windowHeight="8880" xr2:uid="{FE30CEA9-4D91-4F91-8DFB-DFED30287D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Information" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>Amin bin Manap</t>
   </si>
@@ -164,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-14409]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,14 +207,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,17 +526,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07ADF8BA-F017-42AD-A762-9FDC2643F7DD}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
@@ -557,441 +555,352 @@
     <col min="26" max="26" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>30</v>
+    <row r="1" spans="1:29" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
+      <c r="G1" s="5">
+        <v>26253</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="7">
-        <v>45618.002615740741</v>
-      </c>
-      <c r="L1" s="5">
-        <v>45618.002615740741</v>
-      </c>
-      <c r="M1" s="6">
-        <v>26253</v>
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>31</v>
+    <row r="2" spans="1:29" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
+      <c r="G2" s="5">
+        <v>32480</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
-        <v>45618.004224537035</v>
-      </c>
-      <c r="L2" s="5">
-        <v>45618.004224537035</v>
-      </c>
-      <c r="M2" s="6">
-        <v>32480</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>32</v>
+    <row r="3" spans="1:29" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
+      <c r="G3" s="5">
+        <v>32552</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
-        <v>45618.005740740744</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45618.005740740744</v>
-      </c>
-      <c r="M3" s="6">
-        <v>32552</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:29" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>33491</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5">
-        <v>45618.007118055553</v>
-      </c>
-      <c r="L4" s="5">
-        <v>45618.007118055553</v>
-      </c>
-      <c r="M4" s="6">
-        <v>33491</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>7</v>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>34</v>
+    <row r="5" spans="1:29" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
+      <c r="G5" s="5">
+        <v>33156</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5">
-        <v>45618.008530092593</v>
-      </c>
-      <c r="L5" s="5">
-        <v>45618.008530092593</v>
-      </c>
-      <c r="M5" s="6">
-        <v>33156</v>
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>